--- a/dados_coletados/petz_20250913.xlsx
+++ b/dados_coletados/petz_20250913.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R$ 275,90</t>
+          <t>R$ 259,29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>R$ 94,99</t>
+          <t>R$ 67,99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1862,17 +1862,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Nude para Cães</t>
+          <t>Casa Pet Injet Dog House Evolution Preta para Cães</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tam 5</t>
+          <t>Tam 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R$ 329,99</t>
+          <t>R$ 62,99</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1892,7 +1892,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-nude-para-caes-191116</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-preta-para-caes-164656</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Nude para Cães</t>
+          <t>Casa Pet Injet Dog House Evolution Preta para Cães</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tam 6</t>
+          <t>Tam 2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R$ 459,99</t>
+          <t>R$ 62,99</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1940,7 +1940,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-nude-para-caes-191116</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-preta-para-caes-164656</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tam 1</t>
+          <t>Tam 4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R$ 62,99</t>
+          <t>R$ 192,99</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tam 2</t>
+          <t>Tam 5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R$ 62,99</t>
+          <t>R$ 388,99</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2054,17 +2054,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Preta para Cães</t>
+          <t>Casa Pet Injet Dog House Evolution Azul para Cães</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tam 4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>R$ 192,99</t>
+          <t>183.99</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2084,7 +2084,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-preta-para-caes-164656</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-azul-para-caes-153140</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Preta para Cães</t>
+          <t>Casa Pet Injet Evolution Prime Colors Amarela</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tam 5</t>
+          <t>Tam 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>R$ 388,99</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2132,7 +2132,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-preta-para-caes-164656</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-evolution-prime-colors-amarela-148050</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tam 2</t>
+          <t>Tam 4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R$ 59,99</t>
+          <t>R$ 279,99</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tam 4</t>
+          <t>Tam 5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R$ 279,99</t>
+          <t>R$ 419,99</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Evolution Prime Colors Amarela</t>
+          <t>Casa Pet Injet Dog House Evolution Vermelha para Cães</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tam 5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R$ 419,99</t>
+          <t>73.99</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2276,7 +2276,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-evolution-prime-colors-amarela-148050</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-vermelha-para-caes-164659</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2294,17 +2294,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Vermelha para Cães</t>
+          <t>Casa Pet Injet Dog House Evolution Rosa para Cães</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tam 2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>R$ 94,99</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2324,7 +2324,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-vermelha-para-caes-164659</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-rosa-para-caes-153143</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2342,17 +2342,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Azul para Cães</t>
+          <t>Casa Pet Injet Dog House Evolution Rosa para Cães</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tam 3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>183.99</t>
+          <t>R$ 174,99</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-azul-para-caes-153140</t>
+          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-rosa-para-caes-153143</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tam 2</t>
+          <t>Tam 5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>R$ 94,99</t>
+          <t>R$ 419,99</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2433,22 +2433,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Revolution</t>
+          <t>NexGard</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Rosa para Cães</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tam 3</t>
+          <t>1 Tab</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R$ 174,99</t>
+          <t>R$ 93,90</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2468,7 +2468,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-rosa-para-caes-153143</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Revolution</t>
+          <t>NexGard</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Casa Pet Injet Dog House Evolution Rosa para Cães</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tam 5</t>
+          <t>3 Tabs</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R$ 419,99</t>
+          <t>R$ 223,03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2516,7 +2516,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/casa-pet-injet-dog-house-evolution-rosa-para-caes-153143</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R$ 93,90</t>
+          <t>R$ 64,10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2564,7 +2564,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>R$ 223,99</t>
+          <t>R$ 157,23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>R$ 64,10</t>
+          <t>R$ 78,50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2660,7 +2660,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R$ 157,23</t>
+          <t>R$ 210,50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2708,7 +2708,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 78,50</t>
+          <t>R$ 108,50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2756,7 +2756,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>R$ 210,50</t>
+          <t>R$ 292,50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2804,7 +2804,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -2822,17 +2822,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 4,1 a 10kg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1 Tab</t>
+          <t>1 un</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>R$ 101,40</t>
+          <t>R$ 62,55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2852,7 +2852,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-4-a-10-kg-92474</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -2870,17 +2870,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 4,1 a 10kg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3 Tabs</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 292,50</t>
+          <t>R$ 182,90</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2900,7 +2900,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-4-a-10-kg-92474</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 4,1 a 10kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 10,1 a 25kg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>R$ 62,55</t>
+          <t>R$ 77,57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2948,7 +2948,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-4-a-10-kg-92474</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-10-a-25-kg-92475</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 4,1 a 10kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 10,1 a 25kg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>R$ 158,08</t>
+          <t>R$ 189,50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2996,7 +2996,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-4-a-10-kg-92474</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-10-a-25-kg-92475</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 10,1 a 25kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 25,1 a 50kg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>R$ 77,57</t>
+          <t>R$ 101,50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3044,7 +3044,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-10-a-25-kg-92475</t>
+          <t>https://www.petz.com.br/produto/nexgard-25-a-50-kg-antipulgas-e-carrapatos-merial-para-caes-92476</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 10,1 a 25kg</t>
+          <t>Antipulgas e Carrapatos NexGard para Cães de 25,1 a 50kg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R$ 189,50</t>
+          <t>R$ 251,90</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3092,7 +3092,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-10-a-25-kg-92475</t>
+          <t>https://www.petz.com.br/produto/nexgard-25-a-50-kg-antipulgas-e-carrapatos-merial-para-caes-92476</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3110,17 +3110,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 25,1 a 50kg</t>
+          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 un</t>
+          <t>1 Tab</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>R$ 93,36</t>
+          <t>R$ 61,90</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3140,7 +3140,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-25-a-50-kg-antipulgas-e-carrapatos-merial-para-caes-92476</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3158,17 +3158,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard para Cães de 25,1 a 50kg</t>
+          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>3 Tabs</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>R$ 205,90</t>
+          <t>R$ 166,90</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-25-a-50-kg-antipulgas-e-carrapatos-merial-para-caes-92476</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3206,17 +3206,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
+          <t>Antipulgas e Carrapatos Nexgard para Cães de 2 a 4 kg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 Tab</t>
+          <t>1 un</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>R$ 61,90</t>
+          <t>R$ 56,90</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3236,7 +3236,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-2-a-4-kg-92473</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3254,17 +3254,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
+          <t>Antipulgas e Carrapatos Nexgard para Cães de 2 a 4 kg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3 Tabs</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>R$ 158,90</t>
+          <t>R$ 138,99</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3284,7 +3284,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-2-a-4-kg-92473</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Nexgard para Cães de 2 a 4 kg</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R$ 60,42</t>
+          <t>R$ 94,34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3332,7 +3332,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-2-a-4-kg-92473</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Nexgard para Cães de 2 a 4 kg</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>R$ 143,05</t>
+          <t>R$ 212,49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3380,7 +3380,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-merial-nexgard-para-caes-de-2-a-4-kg-92473</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>R$ 94,34</t>
+          <t>R$ 88,00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3428,7 +3428,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>R$ 212,49</t>
+          <t>R$ 195,99</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3476,7 +3476,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -3489,22 +3489,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NexGard</t>
+          <t>NexGard Spectra</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1 un</t>
+          <t>1 Tab</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>R$ 88,00</t>
+          <t>R$ 93,90</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3524,7 +3524,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -3537,22 +3537,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NexGard</t>
+          <t>NexGard Spectra</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>3 Tabs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>R$ 195,99</t>
+          <t>R$ 223,03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3572,7 +3572,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>R$ 93,90</t>
+          <t>R$ 64,10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3620,7 +3620,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 15,1 a 30kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>R$ 223,99</t>
+          <t>R$ 157,23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3668,7 +3668,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-15-1-a-30kg-166515</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R$ 64,10</t>
+          <t>R$ 78,50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3716,7 +3716,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 3,6 a 7,5kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>R$ 157,23</t>
+          <t>R$ 210,50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3764,7 +3764,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-3-6-a-7-5kg-166513</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>R$ 78,50</t>
+          <t>R$ 108,50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3812,7 +3812,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 7,6 a 15kg</t>
+          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>R$ 210,50</t>
+          <t>R$ 292,50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3860,7 +3860,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-7-6-a-15kg-166514</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
+          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>R$ 101,40</t>
+          <t>R$ 61,90</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3908,7 +3908,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos NexGard Spectra para Cães de 30,1 a 60kg</t>
+          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 292,50</t>
+          <t>R$ 166,90</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3956,7 +3956,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-nexgard-spectra-para-caes-de-30-1-a-60kg-166516</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -3969,22 +3969,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NexGard Spectra</t>
+          <t>NexGard Combo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 Tab</t>
+          <t>1 un</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>R$ 61,90</t>
+          <t>R$ 94,34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4017,22 +4017,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NexGard Spectra</t>
+          <t>NexGard Combo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Anti Pulgas e Carrapatos NexGard Spectra para Cães de 2 a 3,5kg</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3 Tabs</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 158,90</t>
+          <t>R$ 212,49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4052,7 +4052,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-e-carrapatos-nexgard-spectra-para-caes-de-2-a-3-5kg-166512</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>R$ 94,34</t>
+          <t>R$ 88,00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4100,7 +4100,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de 2,5 a 7,5 kg 0,9 ml</t>
+          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>R$ 212,49</t>
+          <t>R$ 195,99</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4148,7 +4148,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-2-5-a-7-5-kg-0-9-ml-196812</t>
+          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NexGard Combo</t>
+          <t>Bravecto</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
+          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 4,5 a 10 kg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1 un</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>R$ 88,00</t>
+          <t>238.99</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4196,7 +4196,7 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-4-5-a-10-kg-88400</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NexGard Combo</t>
+          <t>Bravecto</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nexgard Combo Antipulgas, Sarna e Vermes para Gatos de até 2,5 kg 0,3 ml</t>
+          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 20 a 40 kg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>R$ 195,99</t>
+          <t>322.99</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4244,7 +4244,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/nexgard-combo-antipulgas-sarna-e-vermes-para-gatos-de-ate-2-5-kg-0-3-ml-196811</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-20kg-a-40kg-91016</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 4,5 a 10 kg</t>
+          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 10 a 20 kg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>238.99</t>
+          <t>280.99</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4292,7 +4292,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-4-5-a-10-kg-88400</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-10-a-20-kg-88119</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 10 a 20 kg</t>
+          <t>Antipulgas e Carrapatos Bravecto MSD para Cães até 4,5 kg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>280.99</t>
+          <t>197.99</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4340,7 +4340,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-10-a-20-kg-88119</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-ate-4,5-kg-88399</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 20 a 40 kg</t>
+          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 40 a 56 kg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>322.99</t>
+          <t>352.99</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4388,7 +4388,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-20kg-a-40kg-91016</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-40-a-56-kg-91017</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto MSD para Cães até 4,5 kg</t>
+          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 4,5 a 10kg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>197.99</t>
+          <t>238.99</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4436,7 +4436,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-ate-4,5-kg-88399</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-4-5-a-10kg-149994</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto MSD para Cães de 40 a 56 kg</t>
+          <t>Anti Pulgas Bravecto Plus para Gatos de 2,8kg a 6,2kg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>352.99</t>
+          <t>233.99</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4484,7 +4484,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-msd-para-caes-de-40-a-56-kg-91017</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-2-8kg-a-6-2kg-166519</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Anti Pulgas Bravecto Plus para Gatos de 2,8kg a 6,2kg</t>
+          <t>Antipulgas Bravecto Transdermal MSD para Gatos 2,8 a 6,25kg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>233.99</t>
+          <t>210.99</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4532,7 +4532,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-2-8kg-a-6-2kg-166519</t>
+          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-2-8-a-6-25kg-149999</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 4,5 a 10kg</t>
+          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 2 a 4,5kg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>238.99</t>
+          <t>197.99</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4580,7 +4580,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-4-5-a-10kg-149994</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-2-a-4-5kg-149993</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal MSD para Gatos 2,8 a 6,25kg</t>
+          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 10 a 20kg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>210.99</t>
+          <t>280.99</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4628,7 +4628,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-2-8-a-6-25kg-149999</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-10-a-20kg-149995</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 2 a 4,5kg</t>
+          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 20 a 40kg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>197.99</t>
+          <t>322.99</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4676,7 +4676,7 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-2-a-4-5kg-149993</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-20-a-40kg-149996</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 10 a 20kg</t>
+          <t>Anti Pulgas Bravecto Plus para Gatos de 6,24kg a 12,5kg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>280.99</t>
+          <t>275.99</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4724,7 +4724,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-10-a-20kg-149995</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-6-24kg-a-12-5kg-166520</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 20 a 40kg</t>
+          <t>Anti Pulgas Bravecto Plus para Gatos de Até 2,5kg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>322.99</t>
+          <t>207.99</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4772,7 +4772,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-20-a-40kg-149996</t>
+          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-ate-2-5kg-166518</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Anti Pulgas Bravecto Plus para Gatos de 6,24kg a 12,5kg</t>
+          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 40 a 56kg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>275.99</t>
+          <t>352.99</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4820,7 +4820,7 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-6-24kg-a-12-5kg-166520</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-40-a-56kg-149997</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Anti Pulgas Bravecto Plus para Gatos de Até 2,5kg</t>
+          <t>Antipulgas Bravecto Transdermal MSD para Gatos 6,25 a 12,5kg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>207.99</t>
+          <t>250.99</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4868,7 +4868,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-pulgas-bravecto-plus-para-gatos-de-ate-2-5kg-166518</t>
+          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-6-25-a-12-5kg-150000</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Bravecto Transdermal MSD para Cães 40 a 56kg</t>
+          <t>Antipulgas Bravecto Transdermal MSD para Gatos 1,2 a 2,8kg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>352.99</t>
+          <t>187.99</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4916,7 +4916,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-bravecto-transdermal-msd-para-caes-40-a-56kg-149997</t>
+          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-1-2-a-2-8kg-149998</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bravecto</t>
+          <t>Frontline</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal MSD para Gatos 6,25 a 12,5kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Gatos</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>250.99</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4964,7 +4964,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-6-25-a-12-5kg-150000</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-gatos-75577</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bravecto</t>
+          <t>Frontline</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal MSD para Gatos 1,2 a 2,8kg</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Gatos</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>187.99</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5012,7 +5012,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-bravecto-transdermal-msd-para-gatos-1-2-a-2-8kg-149998</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-gatos-75571</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -5030,17 +5030,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Spray para Cães e Gatos</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100 ml</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>R$ 142,00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5060,7 +5060,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-gatos-75577</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-spray-para-caes-e-gatos-77595</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -5078,17 +5078,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Spray para Cães e Gatos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>R$ 207,99</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-gatos-75571</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-spray-para-caes-e-gatos-77595</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -5126,17 +5126,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Spray para Cães e Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Cães de até 10kg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>100 ml</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>R$ 142,00</t>
+          <t>64.99</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5156,7 +5156,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-spray-para-caes-e-gatos-77595</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-1-a-10-kg-75572</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -5174,17 +5174,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Spray para Cães e Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 1 a 10kg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>250 ml</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>R$ 207,99</t>
+          <t>40.99</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5204,7 +5204,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-spray-para-caes-e-gatos-77595</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-1-a-10kg-75566</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Cães de até 10kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 10 a 20kg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>64.99</t>
+          <t>73.99</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5252,7 +5252,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-1-a-10-kg-75572</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-10-a-20-kg-75573</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 1 a 10kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 20 a 40kg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>40.99</t>
+          <t>84.99</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5300,7 +5300,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-1-a-10kg-75566</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-20-a-40-kg-75575</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 10 a 20kg</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 10 a 20kg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>45.99</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5348,7 +5348,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-10-a-20-kg-75573</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-10-a-20-kg-75567</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 20 a 40kg</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 20 a 40kg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>50.99</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5396,7 +5396,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-20-a-40-kg-75575</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-20-a-40-kg-75569</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 10 a 20kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 40 a 60kg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>45.99</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-10-a-20-kg-75567</t>
+          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-40-kg-ou-mais-75576</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -5457,22 +5457,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Frontline</t>
+          <t>Advocate</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Cães de 40 a 60kg</t>
+          <t>Antipulgas Advocate para Gatos entre 4 e 8kg 0,8ml</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1 un</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>R$ 99,44</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5492,7 +5492,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-plus-para-caes-de-40-kg-ou-mais-75576</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-entre-4-e-8kg-1,0ml-75719</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -5505,22 +5505,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Frontline</t>
+          <t>Advocate</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 20 a 40kg</t>
+          <t>Antipulgas Advocate para Gatos entre 4 e 8kg 0,8ml</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>50.99</t>
+          <t>R$ 220,99</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5540,7 +5540,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-e-carrapatos-frontline-topspot-para-caes-de-20-a-40-kg-75569</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-entre-4-e-8kg-1,0ml-75719</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Gatos entre 4 e 8kg 0,8ml</t>
+          <t>Antipulgas Advocate para Gatos de até 4kg 0,4ml</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>R$ 99,44</t>
+          <t>R$ 90,09</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-entre-4-e-8kg-1,0ml-75719</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-de-ate-4kg-0-4ml-75718</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Gatos entre 4 e 8kg 0,8ml</t>
+          <t>Antipulgas Advocate para Gatos de até 4kg 0,4ml</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>R$ 220,99</t>
+          <t>R$ 201,99</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5636,7 +5636,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-entre-4-e-8kg-1,0ml-75719</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-de-ate-4kg-0-4ml-75718</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Gatos de até 4kg 0,4ml</t>
+          <t>Antipulgas Advocate para Cães entre 10 e 25kg 2,5ml</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>R$ 90,09</t>
+          <t>R$ 107,09</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-de-ate-4kg-0-4ml-75718</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-10-e-25kg-2-5ml-75716</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Gatos de até 4kg 0,4ml</t>
+          <t>Antipulgas Advocate para Cães entre 10 e 25kg 2,5ml</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>R$ 201,99</t>
+          <t>R$ 278,50</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5732,7 +5732,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-gatos-de-ate-4kg-0-4ml-75718</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-10-e-25kg-2-5ml-75716</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 10 e 25kg 2,5ml</t>
+          <t>Antipulgas Advocate para Cães entre 4 e 10kg 1,0ml</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>R$ 107,09</t>
+          <t>R$ 105,99</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5780,7 +5780,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-10-e-25kg-2-5ml-75716</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-4-e-10kg-1-0ml-75715</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 10 e 25kg 2,5ml</t>
+          <t>Antipulgas Advocate para Cães entre 4 e 10kg 1,0ml</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>R$ 278,50</t>
+          <t>R$ 233,99</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5828,7 +5828,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-10-e-25kg-2-5ml-75716</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-4-e-10kg-1-0ml-75715</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 4 e 10kg 1,0ml</t>
+          <t>Antipulgas Advocate para Cães entre 25 e 40Kg 4,0ml</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>R$ 105,99</t>
+          <t>R$ 146,99</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5876,7 +5876,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-4-e-10kg-1-0ml-75715</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-25-e-40kg-4-0ml-75717</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 4 e 10kg 1,0ml</t>
+          <t>Antipulgas Advocate para Cães entre 25 e 40Kg 4,0ml</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>R$ 233,99</t>
+          <t>R$ 276,50</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5924,7 +5924,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-4-e-10kg-1-0ml-75715</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-25-e-40kg-4-0ml-75717</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 25 e 40Kg 4,0ml</t>
+          <t>Antipulgas Advocate para Cães de até 4kg 0,4ml</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>R$ 146,99</t>
+          <t>R$ 93,99</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5972,7 +5972,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-25-e-40kg-4-0ml-75717</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-de-ate-4kg-0-4ml-75714</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães entre 25 e 40Kg 4,0ml</t>
+          <t>Antipulgas Advocate para Cães de até 4kg 0,4ml</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>R$ 276,50</t>
+          <t>R$ 209,99</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6020,7 +6020,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-entre-25-e-40kg-4-0ml-75717</t>
+          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-de-ate-4kg-0-4ml-75714</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -6028,27 +6028,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos</t>
+          <t>Vermífugo</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Advocate</t>
+          <t>Drontal</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães de até 4kg 0,4ml</t>
+          <t>Drontal para Cães de 35kg Sabor Carne</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1 un</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>R$ 93,99</t>
+          <t>127.99</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6068,7 +6068,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-de-ate-4kg-0-4ml-75714</t>
+          <t>https://www.petz.com.br/produto/drontal-para-caes-acima-de-35kg-sabor-carne-94379</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -6076,27 +6076,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos</t>
+          <t>Vermífugo</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Advocate</t>
+          <t>Drontal</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate para Cães de até 4kg 0,4ml</t>
+          <t>Drontal Plus para Cães de 10 kg Sabor Carne</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>2 Comps</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>R$ 209,99</t>
+          <t>R$ 44,79</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6116,7 +6116,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antipulgas-advocate-para-caes-de-ate-4kg-0-4ml-75714</t>
+          <t>https://www.petz.com.br/produto/drontal-plus-para-caes-de-10-kg-sabor-carne-83755</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Drontal para Cães de 35kg Sabor Carne</t>
+          <t>Drontal Plus para Cães de 10 kg Sabor Carne</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4 Comps</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>127.99</t>
+          <t>R$ 59,49</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6164,7 +6164,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/drontal-para-caes-acima-de-35kg-sabor-carne-94379</t>
+          <t>https://www.petz.com.br/produto/drontal-plus-para-caes-de-10-kg-sabor-carne-83755</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -6182,17 +6182,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Drontal Plus para Cães de 10 kg Sabor Carne</t>
+          <t>Vermífugo Drontal Puppy para Cães</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2 Comps</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>R$ 44,79</t>
+          <t>81.99</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6212,7 +6212,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/drontal-plus-para-caes-de-10-kg-sabor-carne-83755</t>
+          <t>https://www.petz.com.br/produto/drontal-puppy-20ml-76251</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -6230,17 +6230,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Drontal Plus para Cães de 10 kg Sabor Carne</t>
+          <t>Drontal para Gatos com 4 comprimidos</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4 Comps</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>R$ 59,49</t>
+          <t>66.99</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6260,7 +6260,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/drontal-plus-para-caes-de-10-kg-sabor-carne-83755</t>
+          <t>https://www.petz.com.br/produto/drontal-para-gatos-com-4-comprimidos-78111</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -6278,17 +6278,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal Puppy para Cães</t>
+          <t>Vermífugo Drontal SpotOn para Gatos</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0,35 ml</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>81.99</t>
+          <t>R$ 66,29</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6308,7 +6308,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/drontal-puppy-20ml-76251</t>
+          <t>https://www.petz.com.br/produto/medicamento-drontal-gatos-spoton-163558</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -6326,17 +6326,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Drontal para Gatos com 4 comprimidos</t>
+          <t>Vermífugo Drontal SpotOn para Gatos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0,7 ml</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>66.99</t>
+          <t>R$ 73,94</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6356,7 +6356,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/drontal-para-gatos-com-4-comprimidos-78111</t>
+          <t>https://www.petz.com.br/produto/medicamento-drontal-gatos-spoton-163558</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0,35 ml</t>
+          <t>1,12 ml</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>R$ 66,29</t>
+          <t>R$ 81,59</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6422,17 +6422,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal SpotOn para Gatos</t>
+          <t>Petisco Selections Cuidado Oral Pequeno para Cães</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0,7 ml</t>
+          <t>45 g</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>R$ 73,94</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6452,7 +6452,7 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/medicamento-drontal-gatos-spoton-163558</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-pequeno-para-caes-180866</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -6470,17 +6470,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal SpotOn para Gatos</t>
+          <t>Petisco Selections Cuidado Oral Pequeno para Cães</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1,12 ml</t>
+          <t>110 g</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>R$ 81,59</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6500,7 +6500,7 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/medicamento-drontal-gatos-spoton-163558</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-pequeno-para-caes-180866</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -6523,12 +6523,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>45 g</t>
+          <t>45g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 32,97</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6571,12 +6571,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>110 g</t>
+          <t>450 g</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 36,54</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>45g - Leve 4 Pague 3</t>
+          <t>110g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>R$ 32,97</t>
+          <t>R$ 53,97</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6662,17 +6662,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Pequeno para Cães</t>
+          <t>Kit de Saúde Oral Virbac Pasta e Escova para Cães e Gatos</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>450 g</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>R$ 36,54</t>
+          <t>191.99</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6692,7 +6692,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-pequeno-para-caes-180866</t>
+          <t>https://www.petz.com.br/produto/kit-de-saude-oral-virbac-pasta-e-escova-para-caes-e-gatos-151353</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -6710,17 +6710,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Pequeno para Cães</t>
+          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Grandes 7 Unidades</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>110g - Leve 4 Pague 3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>R$ 53,97</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6740,7 +6740,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-pequeno-para-caes-180866</t>
+          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-grandes-270g-72517</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Grandes 7 Unidades</t>
+          <t>Snack Purina Dentalife para Gatos Sabor Frango 40g</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6788,7 +6788,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-grandes-270g-72517</t>
+          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-gatos-sabor-frango-40g-107570</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -6806,17 +6806,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kit de Saúde Oral Virbac Pasta e Escova para Cães e Gatos</t>
+          <t>Snack Purina Dentalife para Cães Raças Pequenas</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>42 g</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>191.99</t>
+          <t>R$ 14,48</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6836,7 +6836,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/kit-de-saude-oral-virbac-pasta-e-escova-para-caes-e-gatos-151353</t>
+          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-pequenas-107568</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -6854,17 +6854,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Snack Purina Dentalife para Gatos Sabor Frango 40g</t>
+          <t>Snack Purina Dentalife para Cães Raças Pequenas</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>42g - Leve 3 Pague 2</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>R$ 28,96</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6884,7 +6884,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-gatos-sabor-frango-40g-107570</t>
+          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-pequenas-107568</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -6902,17 +6902,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Snack Purina Dentalife para Cães Raças Pequenas</t>
+          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>42 g</t>
+          <t>75 g</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>R$ 14,48</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6932,7 +6932,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-pequenas-107568</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -6950,17 +6950,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Snack Purina Dentalife para Cães Raças Pequenas</t>
+          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>42g - Leve 3 Pague 2</t>
+          <t>180 g</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>R$ 28,96</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6980,7 +6980,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-pequenas-107568</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -6998,17 +6998,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Snack Purina Dentalife para Cães Raças Grandes</t>
+          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>196 g</t>
+          <t>75g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>R$ 23,48</t>
+          <t>R$ 38,97</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7028,7 +7028,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-grandes-107567</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -7046,17 +7046,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Snack Purina Dentalife para Cães Raças Grandes</t>
+          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>196g - Leve 3 Pague 2</t>
+          <t>750 g</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>R$ 46,96</t>
+          <t>R$ 50,99</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7076,7 +7076,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-grandes-107567</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>75 g</t>
+          <t>180g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 65,97</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7142,17 +7142,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
+          <t>Snack Purina Dentalife para Cães Raças Grandes</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>180 g</t>
+          <t>196 g</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 23,48</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7172,7 +7172,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
+          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-grandes-107567</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -7190,17 +7190,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
+          <t>Snack Purina Dentalife para Cães Raças Grandes</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>75g - Leve 4 Pague 3</t>
+          <t>196g - Leve 3 Pague 2</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>R$ 38,97</t>
+          <t>R$ 46,96</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7220,7 +7220,7 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
+          <t>https://www.petz.com.br/produto/snack-purina-dentalife-para-caes-racas-grandes-107567</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -7238,17 +7238,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
+          <t>Petisco Selections Cuidado Oral Grande para Cães</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>750 g</t>
+          <t>120 g</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>R$ 50,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7268,7 +7268,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-grande-para-caes-180864</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -7286,17 +7286,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Médio para Cães</t>
+          <t>Petisco Selections Cuidado Oral Grande para Cães</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>180g - Leve 4 Pague 3</t>
+          <t>270 g</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>R$ 65,97</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7316,7 +7316,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-medio-para-caes-180865</t>
+          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-grande-para-caes-180864</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -7339,12 +7339,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>120 g</t>
+          <t>120g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 50,97</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7387,12 +7387,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>270 g</t>
+          <t>800 g</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 55,24</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7435,12 +7435,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>120g - Leve 4 Pague 3</t>
+          <t>270g - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>R$ 50,97</t>
+          <t>R$ 89,97</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7478,17 +7478,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Grande para Cães</t>
+          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Pequenas</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>800 g</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>R$ 55,24</t>
+          <t>R$ 10,79</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7508,7 +7508,7 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-grande-para-caes-180864</t>
+          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-pequenas-72514</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -7526,17 +7526,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Petisco Selections Cuidado Oral Grande para Cães</t>
+          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Pequenas</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>270g - Leve 4 Pague 3</t>
+          <t>7 un</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>R$ 89,97</t>
+          <t>R$ 18,90</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7556,7 +7556,7 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/snack-selections-cuidado-oral-grande-para-caes-180864</t>
+          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-pequenas-72514</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -7579,12 +7579,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>3 un - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>R$ 10,79</t>
+          <t>R$ 32,37</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7622,17 +7622,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Pequenas</t>
+          <t>Creme Dental Fresh Care Tutti Frutti para Cães e Gatos 90 g</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7 un</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>R$ 18,90</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7652,7 +7652,7 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-pequenas-72514</t>
+          <t>https://www.petz.com.br/produto/creme-dental-fesh-care-tutti-frutti-para-caes-e-gatos-90-g-192639</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -7670,17 +7670,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Pequenas</t>
+          <t>Caixa de Transporte Chalesco Gulliver Cinza Com Rodinhas para Cães e Gatos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3 un - Leve 4 Pague 3</t>
+          <t>Tam 4</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>R$ 32,37</t>
+          <t>R$ 839,99</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,7 +7700,7 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-pequenas-72514</t>
+          <t>https://www.petz.com.br/produto/caixa-de-transporte-chalesco-gulliver-cinza-com-rodinhas-76245</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
@@ -7718,17 +7718,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Creme Dental Fresh Care Tutti Frutti para Cães e Gatos 90 g</t>
+          <t>Caixa de Transporte Chalesco Gulliver Cinza Com Rodinhas para Cães e Gatos</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tam 5</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>R$ 947,99</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7748,7 +7748,7 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/creme-dental-fesh-care-tutti-frutti-para-caes-e-gatos-90-g-192639</t>
+          <t>https://www.petz.com.br/produto/caixa-de-transporte-chalesco-gulliver-cinza-com-rodinhas-76245</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tam 4</t>
+          <t>Tam 7</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>R$ 839,99</t>
+          <t>R$ 1.899,90</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tam 5</t>
+          <t>Tam 6</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>R$ 947,99</t>
+          <t>R$ 1.899,99</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7862,17 +7862,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Caixa de Transporte Chalesco Gulliver Cinza Com Rodinhas para Cães e Gatos</t>
+          <t>Periovet Gel Kit Vetnil 25g</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tam 7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>R$ 1.899,90</t>
+          <t>96.99</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7892,7 +7892,7 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/caixa-de-transporte-chalesco-gulliver-cinza-com-rodinhas-76245</t>
+          <t>https://www.petz.com.br/produto/periovet-gel-kit-vetnil-25g-87803</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
@@ -7910,17 +7910,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Caixa de Transporte Chalesco Gulliver Cinza Com Rodinhas para Cães e Gatos</t>
+          <t>Creme Dental Fresh Care Menta para Cães e Gatos 90 g</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tam 6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>R$ 1.899,99</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7940,7 +7940,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/caixa-de-transporte-chalesco-gulliver-cinza-com-rodinhas-76245</t>
+          <t>https://www.petz.com.br/produto/creme-dental-fesh-care-menta-para-caes-e-gatos-90-g-192638</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
@@ -7958,17 +7958,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Periovet Gel Kit Vetnil 25g</t>
+          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Médias</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3 un</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>R$ 12,59</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7988,7 +7988,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/periovet-gel-kit-vetnil-25g-87803</t>
+          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-medias-72516</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
@@ -8006,17 +8006,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Creme Dental Fresh Care Menta para Cães e Gatos 90 g</t>
+          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Médias</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7 un</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>R$ 22,75</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8036,7 +8036,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/creme-dental-fesh-care-menta-para-caes-e-gatos-90-g-192638</t>
+          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-medias-72516</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3 un</t>
+          <t>3 un - Leve 4 Pague 3</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>R$ 12,59</t>
+          <t>R$ 37,77</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8102,17 +8102,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Médias</t>
+          <t>Brinquedo Chalesco Corda Dental Bone Grande para Cães - Cores Sortidas</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7 un</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>R$ 22,75</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8132,7 +8132,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-medias-72516</t>
+          <t>https://www.petz.com.br/produto/brinquedo-chalesco-para-caes-dental-bone-cores-sortidas-77442</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
@@ -8145,22 +8145,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Drontal</t>
+          <t>Milbemax</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Petisco Pedigree Dentastix Cuidado Oral Para Cães Adultos Raças Médias</t>
+          <t>Milbemax Elanco para Cães de 5kg a 25kg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>3 un - Leve 4 Pague 3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>R$ 37,77</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8180,7 +8180,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/petisco-pedigree-dentastix-para-caes-adultos-de-racas-medias-72516</t>
+          <t>https://www.petz.com.br/produto/milbemax-novartis-para-caes-de-5kg-a-25kg-78443</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
@@ -8193,22 +8193,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Drontal</t>
+          <t>Milbemax</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Caixa de Transporte Luxo Furacão Pet Preto e Azul</t>
+          <t>Vermífugo Milbemax para Gatos 16/40mg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tam 3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>R$ 71,24</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8228,7 +8228,7 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/caixa-de-transporte-luxo-furacao-pet-preto-e-azul-98673</t>
+          <t>https://www.petz.com.br/produto/anti-helmintico-milbemax-para-gatos-16-40mg-152198</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -8241,22 +8241,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Drontal</t>
+          <t>Milbemax</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Caixa de Transporte Luxo Furacão Pet Preto e Azul</t>
+          <t>Milbemax Elanco para Cães até 5kg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tam 2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>R$ 71,91</t>
+          <t>46.99</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8276,7 +8276,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/caixa-de-transporte-luxo-furacao-pet-preto-e-azul-98673</t>
+          <t>https://www.petz.com.br/produto/milbemax-novartis-para-caes-ate-5kg-78442</t>
         </is>
       </c>
       <c r="N163" t="inlineStr"/>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Milbemax Elanco para Cães de 5kg a 25kg</t>
+          <t>Vermífugo Milbemax para Gatos 4/10mg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8324,7 +8324,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/milbemax-novartis-para-caes-de-5kg-a-25kg-78443</t>
+          <t>https://www.petz.com.br/produto/anti-helmintico-milbemax-para-gatos-4-10mg-152197</t>
         </is>
       </c>
       <c r="N164" t="inlineStr"/>
@@ -8337,12 +8337,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Milbemax</t>
+          <t>Vermivet</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax para Gatos 16/40mg</t>
+          <t>Vermífugo Biovet Vermivet Plus 660mg para Cães com 4 Comprimidos</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>63.99</t>
+          <t>39.99</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8372,7 +8372,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-helmintico-milbemax-para-gatos-16-40mg-152198</t>
+          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-plus-660mg-para-caes-com-4-comprimidos-97542</t>
         </is>
       </c>
       <c r="N165" t="inlineStr"/>
@@ -8385,12 +8385,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Milbemax</t>
+          <t>Vermivet</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Milbemax Elanco para Cães até 5kg</t>
+          <t>Vermífugo Biovet Vermivet Filhote para Cães e Gatos 20ml</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>46.99</t>
+          <t>51.99</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8420,7 +8420,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/milbemax-novartis-para-caes-ate-5kg-78442</t>
+          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-filhote-para-caes-e-gatos-20ml-97543</t>
         </is>
       </c>
       <c r="N166" t="inlineStr"/>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Milbemax</t>
+          <t>Vermivet</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax para Gatos 4/10mg</t>
+          <t>Vermífugo Biovet Vermivet Plus 2,0g para Cães com 2 Comprimidos</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>60.99</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8468,7 +8468,7 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-helmintico-milbemax-para-gatos-4-10mg-152197</t>
+          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-plus-2-0g-para-caes-com-2-comprimidos-97534</t>
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Vermífugo Biovet Vermivet Plus 660mg para Cães com 4 Comprimidos</t>
+          <t>Vermífugo Biovet Vermivet Composto 600mg  para Cães com 4 Comprimidos</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8516,7 +8516,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-plus-660mg-para-caes-com-4-comprimidos-97542</t>
+          <t>https://www.petz.com.br/produto/vermivet-composto-biovet-600mg-com-4-comprimidos-160434</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Vermífugo Biovet Vermivet Filhote para Cães e Gatos 20ml</t>
+          <t>Vermífugo Vermivet Composto 300mg para Gatos com 4 Comprimidos</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>51.99</t>
+          <t>45.99</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8564,7 +8564,7 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-filhote-para-caes-e-gatos-20ml-97543</t>
+          <t>https://www.petz.com.br/produto/vermifugo-vermivet-composto-300mg-para-gatos-com-4-comprimidos-175265</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
@@ -8572,17 +8572,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vermífugo</t>
+          <t>Anti-inflamatório</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Vermivet</t>
+          <t>Rimadyl</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Vermífugo Biovet Vermivet Plus 2,0g para Cães com 2 Comprimidos</t>
+          <t>Rimadyl Zoetis 100mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>60.99</t>
+          <t>142.99</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8612,7 +8612,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/vermifugo-biovet-vermivet-plus-2-0g-para-caes-com-2-comprimidos-97534</t>
+          <t>https://www.petz.com.br/produto/rimadyl-zoetis-100mg-14-comprimidos-78180</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
@@ -8620,17 +8620,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Vermífugo</t>
+          <t>Anti-inflamatório</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Vermivet</t>
+          <t>Rimadyl</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Vermífugo Biovet Vermivet Composto 600mg  para Cães com 4 Comprimidos</t>
+          <t>Rimadyl Zoetis 25mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>86.99</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8660,7 +8660,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/vermivet-composto-biovet-600mg-com-4-comprimidos-160434</t>
+          <t>https://www.petz.com.br/produto/rimadyl-zoetis-25mg-14-comprimidos-78178</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
@@ -8668,17 +8668,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Vermífugo</t>
+          <t>Anti-inflamatório</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Vermivet</t>
+          <t>Rimadyl</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet Composto 300mg para Gatos com 4 Comprimidos</t>
+          <t>Rimadyl Zoetis 75mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>45.99</t>
+          <t>120.99</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8708,7 +8708,7 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/vermifugo-vermivet-composto-300mg-para-gatos-com-4-comprimidos-175265</t>
+          <t>https://www.petz.com.br/produto/rimadyl-zoetis-75mg-14-comprimidos-78179</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -8721,12 +8721,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rimadyl</t>
+          <t>Onsior</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Rimadyl Zoetis 100mg 14 Comprimidos</t>
+          <t>Anti-inflamatório Onsior para Cães 10mg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>142.99</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8756,7 +8756,7 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/rimadyl-zoetis-100mg-14-comprimidos-78180</t>
+          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-10mg-149287</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
@@ -8769,12 +8769,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rimadyl</t>
+          <t>Onsior</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Rimadyl Zoetis 25mg 14 Comprimidos</t>
+          <t>Anti-inflamatório Onsior para Cães 40mg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>86.99</t>
+          <t>150.99</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8804,7 +8804,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/rimadyl-zoetis-25mg-14-comprimidos-78178</t>
+          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-40mg-149289</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
@@ -8817,12 +8817,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Rimadyl</t>
+          <t>Onsior</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Rimadyl Zoetis 75mg 14 Comprimidos</t>
+          <t>Anti-inflamatório Onsior para Gatos 6mg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>120.99</t>
+          <t>82.99</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8852,7 +8852,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/rimadyl-zoetis-75mg-14-comprimidos-78179</t>
+          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-gatos-6mg-158977</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Onsior para Cães 10mg</t>
+          <t>Anti-inflamatório Onsior para Cães 20mg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>105.99</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -8900,7 +8900,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-10mg-149287</t>
+          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-20mg-149288</t>
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
@@ -8913,12 +8913,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Onsior</t>
+          <t>Maxicam</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Onsior para Cães 40mg</t>
+          <t>Maxicam Ourofino 2mg 10 Comprimidos</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>150.99</t>
+          <t>57.90</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8948,7 +8948,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-40mg-149289</t>
+          <t>https://www.petz.com.br/produto/maxicam-ourofino-2mg-10-comprimidos-84035</t>
         </is>
       </c>
       <c r="N177" t="inlineStr"/>
@@ -8961,12 +8961,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Onsior</t>
+          <t>Maxicam</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Onsior para Gatos 6mg</t>
+          <t>Maxicam Ourofino 0,5mg 10 Comprimidos</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>82.99</t>
+          <t>37.99</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -8996,7 +8996,7 @@
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-gatos-6mg-158977</t>
+          <t>https://www.petz.com.br/produto/maxicam-ourofino-0-5mg-10-comprimidos-78257</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
@@ -9009,12 +9009,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Onsior</t>
+          <t>Maxicam</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Onsior para Cães 20mg</t>
+          <t>Maxicam Plus Ourofino 2mg 8 Comprimidos</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>105.99</t>
+          <t>108.99</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9044,7 +9044,7 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/anti-inflamatorio-onsior-para-caes-20mg-149288</t>
+          <t>https://www.petz.com.br/produto/maxicam-plus-ourofino-2mg-8-comprimidos-74872</t>
         </is>
       </c>
       <c r="N179" t="inlineStr"/>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Maxicam Ourofino 2mg 10 Comprimidos</t>
+          <t>Maxicam Plus Ourofino 0,5mg 8 Comprimidos</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>57.90</t>
+          <t>68.99</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9092,7 +9092,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/maxicam-ourofino-2mg-10-comprimidos-84035</t>
+          <t>https://www.petz.com.br/produto/maxicam-plus-ourofino-0-5mg-8-comprimidos-78868</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Maxicam Ourofino 0,5mg 10 Comprimidos</t>
+          <t>Luva Chalesco Mágica para Cães e Gatos</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>37.99</t>
+          <t>69.99</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9140,7 +9140,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/maxicam-ourofino-0-5mg-10-comprimidos-78257</t>
+          <t>https://www.petz.com.br/produto/luva-chalesco-magica-para-caes-e-gatos-169501</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Maxicam Plus Ourofino 2mg 8 Comprimidos</t>
+          <t>Brinquedo Furacão Pet Frisbee de Borracha Maciça Rosa para Cães</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>108.99</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9188,7 +9188,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/maxicam-plus-ourofino-2mg-8-comprimidos-74872</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-frisbee-de-borracha-macica-rosa-para-caes-171306</t>
         </is>
       </c>
       <c r="N182" t="inlineStr"/>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Maxicam Plus Ourofino 0,5mg 8 Comprimidos</t>
+          <t>Brinquedo Furacão Pet Frisbee de Borracha Maciça Azul para Cães</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>68.99</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9236,7 +9236,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/maxicam-plus-ourofino-0-5mg-8-comprimidos-78868</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-frisbee-de-borracha-macica-azul-para-caes-171305</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
@@ -9254,17 +9254,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Luva Chalesco Mágica para Cães e Gatos</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul para Adestramento para Cães</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tam 6</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>69.99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9284,7 +9284,7 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/luva-chalesco-magica-para-caes-e-gatos-169501</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-para-adestramento-para-caes-171276</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
@@ -9302,17 +9302,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Frisbee de Borracha Maciça Rosa para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul para Adestramento para Cães</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tam 7</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9332,7 +9332,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-frisbee-de-borracha-macica-rosa-para-caes-171306</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-para-adestramento-para-caes-171276</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
@@ -9350,17 +9350,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Frisbee de Borracha Maciça Azul para Cães</t>
+          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>R$ 9,34</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9380,7 +9380,7 @@
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-frisbee-de-borracha-macica-azul-para-caes-171305</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
@@ -9398,17 +9398,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul para Adestramento para Cães</t>
+          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Tam 6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 15,29</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9428,7 +9428,7 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-para-adestramento-para-caes-171276</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
@@ -9446,17 +9446,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul para Adestramento para Cães</t>
+          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Tam 7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9476,7 +9476,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-para-adestramento-para-caes-171276</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
@@ -9494,17 +9494,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça para Adestramento Rosa para Cães</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Tam 6</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>R$ 9,34</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9524,7 +9524,7 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-para-adestramento-rosa-para-caes-171277</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
@@ -9542,17 +9542,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça para Adestramento Rosa para Cães</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Tam 7</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>R$ 15,29</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9572,7 +9572,7 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-para-adestramento-rosa-para-caes-171277</t>
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
@@ -9590,17 +9590,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Galho Borracha Maciça para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Futebol Americano Azul para Cães</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>44.99</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9620,7 +9620,7 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-galho-borracha-macica-para-caes-181617</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-futebol-americano-azul-para-caes-171287</t>
         </is>
       </c>
       <c r="N191" t="inlineStr"/>
@@ -9638,17 +9638,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça para Adestramento Rosa para Cães</t>
+          <t>Brinquedo LCM Cães Bola Borracha Maciça 80mm</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Tam 6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>51.99</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9668,7 +9668,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-para-adestramento-rosa-para-caes-171277</t>
+          <t>https://www.petz.com.br/produto/brinquedo-lcm-caes-bola-borracha-macica-80mm-75782</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
@@ -9686,17 +9686,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça para Adestramento Rosa para Cães</t>
+          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Especial Azul para Cães</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Tam 7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9716,7 +9716,7 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-para-adestramento-rosa-para-caes-171277</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-azul-com-cravo-para-caes-171255</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Futebol Americano Azul para Cães</t>
+          <t>Espuma Mágica Procão 400ml</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>44.99</t>
+          <t>35.99</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9764,7 +9764,7 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-futebol-americano-azul-para-caes-171287</t>
+          <t>https://www.petz.com.br/produto/espuma-magica-procao-400ml-133414</t>
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
@@ -9782,17 +9782,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Brinquedo LCM Cães Bola Borracha Maciça 80mm</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul com Friso para Cães</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8 cm</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>51.99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9812,7 +9812,7 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-lcm-caes-bola-borracha-macica-80mm-75782</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-com-friso-para-caes-171282</t>
         </is>
       </c>
       <c r="N195" t="inlineStr"/>
@@ -9830,17 +9830,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Especial Azul para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul com Friso para Cães</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9 cm</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9860,7 +9860,7 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-azul-com-cravo-para-caes-171255</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-com-friso-para-caes-171282</t>
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Espuma Mágica Procão 400ml</t>
+          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Rosa com Cravo para Cães</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>35.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -9908,7 +9908,7 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/espuma-magica-procao-400ml-133414</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-rosa-com-cravo-para-caes-171256</t>
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
@@ -9926,17 +9926,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul com Friso para Cães</t>
+          <t>Brinquedo Furacão Pet Bastão Torcido de Borracha Maciça Vermelho para Cães</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>8 cm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>46.99</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9956,7 +9956,7 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-com-friso-para-caes-171282</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bastao-torcido-de-borracha-macica-vermelho-para-caes-171275</t>
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
@@ -9974,17 +9974,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Azul com Friso para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Futebol Americano Rosa para Cães</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>9 cm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>44.99</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10004,7 +10004,7 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-azul-com-friso-para-caes-171282</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-futebol-americano-rosa-para-caes-171288</t>
         </is>
       </c>
       <c r="N199" t="inlineStr"/>
@@ -10022,17 +10022,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Rosa com Cravo para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10052,7 +10052,7 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-rosa-com-cravo-para-caes-171256</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
@@ -10070,17 +10070,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bastão Torcido de Borracha Maciça Vermelho para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>46.99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10100,7 +10100,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bastao-torcido-de-borracha-macica-vermelho-para-caes-171275</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
@@ -10118,17 +10118,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Futebol Americano Rosa para Cães</t>
+          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>44.99</t>
+          <t>R$ 24,49</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10148,7 +10148,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-futebol-americano-rosa-para-caes-171288</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
         </is>
       </c>
       <c r="N202" t="inlineStr"/>
@@ -10166,17 +10166,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
+          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Ossinho Azul para Cães</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10196,7 +10196,7 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
+          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-ossinho-azul-para-caes-171258</t>
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
@@ -10209,22 +10209,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Maxicam</t>
+          <t>Carproflan</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
+          <t>Carproflan Agener União 100mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>122.99</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10244,7 +10244,7 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
+          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-100mg-14-comprimidos-73982</t>
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
@@ -10257,22 +10257,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Maxicam</t>
+          <t>Carproflan</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Bola de Borracha Maciça Superball Rosa para Cães</t>
+          <t>Carproflan Agener União 25mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>R$ 24,49</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10292,7 +10292,7 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-bola-de-borracha-macica-superball-rosa-para-caes-171297</t>
+          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-25mg-14-comprimidos-73980</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
@@ -10305,12 +10305,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Maxicam</t>
+          <t>Carproflan</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Brinquedo Furacão Pet Halteres de Borracha Maciça Ossinho Azul para Cães</t>
+          <t>Carproflan Agener União 75mg 14 Comprimidos</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>110.99</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10340,7 +10340,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-furacao-pet-halteres-de-borracha-macica-ossinho-azul-para-caes-171258</t>
+          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-75mg-14-comprimidos-73981</t>
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
@@ -10353,12 +10353,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Carproflan</t>
+          <t>Previcox</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Carproflan Agener União 100mg 14 Comprimidos</t>
+          <t>Previcox Boehringer Ingelheim 227mg</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>122.99</t>
+          <t>283.99</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10388,7 +10388,7 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-100mg-14-comprimidos-73982</t>
+          <t>https://www.petz.com.br/produto/previcox-merial-227mg-75956</t>
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
@@ -10401,12 +10401,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Carproflan</t>
+          <t>Previcox</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Carproflan Agener União 25mg 14 Comprimidos</t>
+          <t>Previcox Boehringer Ingelheim 57mg</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>194.99</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10436,7 +10436,7 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-25mg-14-comprimidos-73980</t>
+          <t>https://www.petz.com.br/produto/previcox-merial-57mg-75955</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
@@ -10444,27 +10444,27 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Anti-inflamatório</t>
+          <t>Dermatológico / Antialergico</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Carproflan</t>
+          <t>Apoquel</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Carproflan Agener União 75mg 14 Comprimidos</t>
+          <t>Apoquel Zoetis Dermatológico para Cães</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3,6 mg</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>110.99</t>
+          <t>R$ 197,59</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10484,7 +10484,7 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/carproflan-agener-uniao-75mg-14-comprimidos-73981</t>
+          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
@@ -10492,27 +10492,27 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Anti-inflamatório</t>
+          <t>Dermatológico / Antialergico</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Previcox</t>
+          <t>Apoquel</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Previcox Boehringer Ingelheim 227mg</t>
+          <t>Apoquel Zoetis Dermatológico para Cães</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5,4 mg</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>283.99</t>
+          <t>R$ 211,99</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10532,7 +10532,7 @@
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/previcox-merial-227mg-75956</t>
+          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
@@ -10540,27 +10540,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Anti-inflamatório</t>
+          <t>Dermatológico / Antialergico</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Previcox</t>
+          <t>Apoquel</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Previcox Boehringer Ingelheim 57mg</t>
+          <t>Apoquel Zoetis Dermatológico para Cães</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>16 mg</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>194.99</t>
+          <t>R$ 422,39</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10580,7 +10580,7 @@
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/previcox-merial-57mg-75955</t>
+          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
@@ -10593,22 +10593,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Apoquel</t>
+          <t>Zenrelia</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Apoquel Zoetis Dermatológico para Cães</t>
+          <t>Zenrelia Elanco 15 mg para Cães 30 Comprimidos</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>3,6 mg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>R$ 197,59</t>
+          <t>456.90</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10628,7 +10628,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
+          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197576</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
@@ -10641,22 +10641,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Apoquel</t>
+          <t>Zenrelia</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Apoquel Zoetis Dermatológico para Cães</t>
+          <t>Zenrelia Elanco 8,5 mg para Cães 30 Comprimidos</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>5,4 mg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>R$ 211,99</t>
+          <t>286.90</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10676,7 +10676,7 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
+          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197575</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
@@ -10689,22 +10689,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Apoquel</t>
+          <t>Zenrelia</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Apoquel Zoetis Dermatológico para Cães</t>
+          <t>Zenrelia Elanco 6,4 mg para Cães 30 Comprimidos</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>16 mg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>R$ 422,39</t>
+          <t>272.50</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10724,7 +10724,7 @@
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/apoquel-zoetis-dermatologico-para-caes-99014</t>
+          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197574</t>
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Zenrelia Elanco 15 mg para Cães 30 Comprimidos</t>
+          <t>Zenrelia Elanco 4,8 mg para Cães 30 Comprimidos</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>456.90</t>
+          <t>255.50</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10772,7 +10772,7 @@
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197576</t>
+          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197573</t>
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
@@ -10780,17 +10780,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Dermatológico / Antialergico</t>
+          <t>Antibiótico</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Zenrelia</t>
+          <t>Synulox</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Zenrelia Elanco 8,5 mg para Cães 30 Comprimidos</t>
+          <t>Synulox Zoetis 250mg 10 Comprimidos</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>286.90</t>
+          <t>162.99</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10820,7 +10820,7 @@
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197575</t>
+          <t>https://www.petz.com.br/produto/synulox-zoetis-250mg-10-comprimidos-76377</t>
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
@@ -10828,17 +10828,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Dermatológico / Antialergico</t>
+          <t>Antibiótico</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Zenrelia</t>
+          <t>Synulox</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Zenrelia Elanco 6,4 mg para Cães 30 Comprimidos</t>
+          <t>Synulox Zoetis 50mg 10 Comprimidos</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>272.50</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10868,7 +10868,7 @@
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197574</t>
+          <t>https://www.petz.com.br/produto/synulox-zoetis-50mg-10-comprimidos-75535</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
@@ -10876,17 +10876,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Dermatológico / Antialergico</t>
+          <t>Antibiótico</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Zenrelia</t>
+          <t>Baytril</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Zenrelia Elanco 4,8 mg para Cães 30 Comprimidos</t>
+          <t>Baytril Flavour 50mg com 10 comprimidos</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>255.50</t>
+          <t>52.99</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10916,7 +10916,7 @@
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antialergico-elanco-zenrelia-para-caes-30-comprimidos-197573</t>
+          <t>https://www.petz.com.br/produto/baytril-flavour-50mg-com-10-comprimidos-76265</t>
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
@@ -10929,12 +10929,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Synulox</t>
+          <t>Baytril</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Synulox Zoetis 250mg 10 Comprimidos</t>
+          <t>Baytril Flavour 150mg com 10 comprimidos</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>162.99</t>
+          <t>106.99</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -10964,7 +10964,7 @@
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/synulox-zoetis-250mg-10-comprimidos-76377</t>
+          <t>https://www.petz.com.br/produto/baytril-flavour-150mg-com-10-comprimidos-79091</t>
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
@@ -10977,12 +10977,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Synulox</t>
+          <t>Baytril</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Synulox Zoetis 50mg 10 Comprimidos</t>
+          <t>Baytril Flavour 15mg com 10 comprimidos</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>37.99</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11012,7 +11012,7 @@
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/synulox-zoetis-50mg-10-comprimidos-75535</t>
+          <t>https://www.petz.com.br/produto/baytril-flavour-15mg-com-10-comprimidos-77564</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Baytril Flavour 50mg com 10 comprimidos</t>
+          <t>Baytril Injetável 5% para Cães e Gatos 10ml</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>52.99</t>
+          <t>48.99</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11060,7 +11060,7 @@
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/baytril-flavour-50mg-com-10-comprimidos-76265</t>
+          <t>https://www.petz.com.br/produto/baytril-injetavel-5-para-caes-e-gatos-10ml-164704</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Baytril Flavour 150mg com 10 comprimidos</t>
+          <t>Antibiótico Baytril Injetável 10% - 10ml</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>106.99</t>
+          <t>53.99</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11108,7 +11108,7 @@
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/baytril-flavour-150mg-com-10-comprimidos-79091</t>
+          <t>https://www.petz.com.br/produto/antibiotico-baytril-injetavel-10-10ml-164707</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Baytril Flavour 15mg com 10 comprimidos</t>
+          <t>Brinquedo Animalissimo Barril de Madeira para Hamster</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>37.99</t>
+          <t>38.99</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11156,7 +11156,7 @@
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/baytril-flavour-15mg-com-10-comprimidos-77564</t>
+          <t>https://www.petz.com.br/produto/brinquedo-animalissimo-barril-de-madeira-para-hamster-201313</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Baytril Injetável 5% para Cães e Gatos 10ml</t>
+          <t>Enfeite Lester Barril Mini</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>48.99</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11204,7 +11204,7 @@
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/baytril-injetavel-5-para-caes-e-gatos-10ml-164704</t>
+          <t>https://www.petz.com.br/produto/enfeite-lester-barril-mini-160124</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Antibiótico Baytril Injetável 10% - 10ml</t>
+          <t>Enfeite Lester Barril Grande</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>53.99</t>
+          <t>81.99</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11252,7 +11252,7 @@
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/antibiotico-baytril-injetavel-10-10ml-164707</t>
+          <t>https://www.petz.com.br/produto/enfeite-lester-barril-grande-160123</t>
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Brinquedo Animalissimo Barril de Madeira para Hamster</t>
+          <t>Enfeite Lester Conjunto Barril</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11280,7 +11280,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>184.99</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11300,7 +11300,7 @@
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/brinquedo-animalissimo-barril-de-madeira-para-hamster-201313</t>
+          <t>https://www.petz.com.br/produto/enfeite-lester-conjunto-barril-160289</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Enfeite Lester Barril Mini</t>
+          <t>Enfeite Lester Barril Novo Médio</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>84.99</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11348,7 +11348,7 @@
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/enfeite-lester-barril-mini-160124</t>
+          <t>https://www.petz.com.br/produto/enfeite-lester-barril-novo-medio-160323</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Enfeite Lester Barril Grande</t>
+          <t>Enfeite Lester Barril Aberto</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>81.99</t>
+          <t>71.99</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11396,154 +11396,10 @@
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr">
         <is>
-          <t>https://www.petz.com.br/produto/enfeite-lester-barril-grande-160123</t>
+          <t>https://www.petz.com.br/produto/enfeite-lester-barril-aberto-160120</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Antibiótico</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Baytril</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Enfeite Lester Conjunto Barril</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>184.99</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>petz.com.br</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>https://www.petz.com.br/produto/enfeite-lester-conjunto-barril-160289</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Antibiótico</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Baytril</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Enfeite Lester Barril Novo Médio</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>petz.com.br</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>https://www.petz.com.br/produto/enfeite-lester-barril-novo-medio-160323</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Antibiótico</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Baytril</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Enfeite Lester Barril Aberto</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>71.99</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>petz.com.br</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>https://www.petz.com.br/produto/enfeite-lester-barril-aberto-160120</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
